--- a/GemeentelijkeMonumenten/Output/gemeentelijkemonumenten.xlsx
+++ b/GemeentelijkeMonumenten/Output/gemeentelijkemonumenten.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7140" uniqueCount="2853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="2853">
   <si>
     <t>omschrijving</t>
   </si>
@@ -66,7 +66,7 @@
     <t>0022/WN001</t>
   </si>
   <si>
-    <t>http://nl.wikipedia.org/w/index.php?title=Lijst_van_gemeentelijke_monumenten_in_Leek&amp;oldid=45002341</t>
+    <t>http://nl.wikipedia.org/w/index.php?title=Lijst_van_gemeentelijke_monumenten_in_Leek&amp;oldid=46648259</t>
   </si>
   <si>
     <t>Hoendiep 4</t>
@@ -657,7 +657,7 @@
     <t>0018/1</t>
   </si>
   <si>
-    <t>http://nl.wikipedia.org/w/index.php?title=Lijst_van_gemeentelijke_monumenten_in_Hoogezand-Sappemeer&amp;oldid=46330364</t>
+    <t>http://nl.wikipedia.org/w/index.php?title=Lijst_van_gemeentelijke_monumenten_in_Hoogezand-Sappemeer&amp;oldid=46648238</t>
   </si>
   <si>
     <t>Dorpsstraat 178</t>
@@ -1347,7 +1347,7 @@
     <t>0017/wikinr1</t>
   </si>
   <si>
-    <t>http://nl.wikipedia.org/w/index.php?title=Lijst_van_gemeentelijke_monumenten_in_Glimmen&amp;oldid=42367936</t>
+    <t>http://nl.wikipedia.org/w/index.php?title=Lijst_van_gemeentelijke_monumenten_in_Glimmen&amp;oldid=46648175</t>
   </si>
   <si>
     <t>Woonhuis ''Kooykamp''</t>
@@ -8873,10 +8873,10 @@
         <v>17</v>
       </c>
       <c r="I7" s="9">
-        <v>220936</v>
+        <v>220718</v>
       </c>
       <c r="J7" s="10">
-        <v>574215</v>
+        <v>574126</v>
       </c>
     </row>
     <row r="8">
@@ -8886,7 +8886,9 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
@@ -8902,8 +8904,12 @@
       <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="9">
+        <v>221097</v>
+      </c>
+      <c r="J8" s="10">
+        <v>574395</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
@@ -10032,7 +10038,9 @@
       <c r="B44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
       </c>
@@ -10048,8 +10056,12 @@
       <c r="H44" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
+      <c r="I44" s="9">
+        <v>219350</v>
+      </c>
+      <c r="J44" s="10">
+        <v>579868</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
@@ -11402,7 +11414,9 @@
       <c r="B87" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="D87" s="4" t="s">
         <v>210</v>
       </c>
@@ -11418,8 +11432,12 @@
       <c r="H87" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="10"/>
+      <c r="I87" s="9">
+        <v>250388</v>
+      </c>
+      <c r="J87" s="10">
+        <v>577363</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
@@ -12292,7 +12310,9 @@
       <c r="B115" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="D115" s="4" t="s">
         <v>210</v>
       </c>
@@ -12308,8 +12328,12 @@
       <c r="H115" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I115" s="9"/>
-      <c r="J115" s="10"/>
+      <c r="I115" s="9">
+        <v>247280</v>
+      </c>
+      <c r="J115" s="10">
+        <v>572400</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
@@ -12414,7 +12438,9 @@
       <c r="B119" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C119" s="3"/>
+      <c r="C119" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="D119" s="4" t="s">
         <v>210</v>
       </c>
@@ -12430,8 +12456,12 @@
       <c r="H119" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="I119" s="9"/>
-      <c r="J119" s="10"/>
+      <c r="I119" s="9">
+        <v>248178</v>
+      </c>
+      <c r="J119" s="10">
+        <v>570510</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
@@ -13355,10 +13385,10 @@
         <v>444</v>
       </c>
       <c r="I148" s="9">
-        <v>237924</v>
+        <v>237893</v>
       </c>
       <c r="J148" s="10">
-        <v>572813</v>
+        <v>572878</v>
       </c>
     </row>
     <row r="149">
